--- a/data/clean/tableau/rel_diff_single_occ.xlsx
+++ b/data/clean/tableau/rel_diff_single_occ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurits/Documents/Ironhack/week_08/final_project/data/clean/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F10B55-DF3A-AA42-83E9-0FB11342D9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6F5310-28AF-5346-BC81-E638B025980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="24980" windowHeight="28300" xr2:uid="{EF9C10A3-C439-FF4A-9D75-F5D0D3093759}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD16C09-08CE-5945-9821-E1A9C22B7F65}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,7 +420,7 @@
         <v>40909</v>
       </c>
       <c r="B2">
-        <v>-2.3215819300408391E-3</v>
+        <v>1.521159532606231E-2</v>
       </c>
       <c r="C2">
         <v>105</v>
@@ -431,7 +431,7 @@
         <v>41275</v>
       </c>
       <c r="B3">
-        <v>-1.3111075329870103E-2</v>
+        <v>1.4506091704500346E-3</v>
       </c>
       <c r="C3">
         <v>133</v>
@@ -442,7 +442,7 @@
         <v>41640</v>
       </c>
       <c r="B4">
-        <v>-4.1955673467278798E-3</v>
+        <v>1.0304391875608054E-2</v>
       </c>
       <c r="C4">
         <v>86</v>
@@ -453,7 +453,7 @@
         <v>42005</v>
       </c>
       <c r="B5">
-        <v>7.4124068958669742E-3</v>
+        <v>1.4972609405217829E-2</v>
       </c>
       <c r="C5">
         <v>123</v>
@@ -464,7 +464,7 @@
         <v>42370</v>
       </c>
       <c r="B6">
-        <v>1.1351624408739491E-2</v>
+        <v>1.7769467755268442E-2</v>
       </c>
       <c r="C6">
         <v>118</v>
@@ -475,7 +475,7 @@
         <v>42736</v>
       </c>
       <c r="B7">
-        <v>5.5834666070353478E-3</v>
+        <v>1.8860995169737382E-2</v>
       </c>
       <c r="C7">
         <v>128</v>
@@ -486,7 +486,7 @@
         <v>43101</v>
       </c>
       <c r="B8">
-        <v>-4.2809127332437136E-3</v>
+        <v>1.3226598625263541E-2</v>
       </c>
       <c r="C8">
         <v>98</v>
@@ -497,7 +497,7 @@
         <v>43466</v>
       </c>
       <c r="B9">
-        <v>-2.762355507883496E-2</v>
+        <v>-9.7057393164112771E-4</v>
       </c>
       <c r="C9">
         <v>92</v>
@@ -508,11 +508,50 @@
         <v>43831</v>
       </c>
       <c r="B10">
-        <v>-2.4043880111270677E-2</v>
+        <v>1.4529219018525552E-2</v>
       </c>
       <c r="C10">
         <v>77</v>
       </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B11">
+        <v>1.742916196195754E-2</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B12">
+        <v>1.9498607387739231E-2</v>
+      </c>
+      <c r="C12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B13">
+        <v>2.8287782113929572E-2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
